--- a/ALDL/Other/cos.xlsx
+++ b/ALDL/Other/cos.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORB User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORB User\Documents\GitHub\STM32\ALDL\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7642B8-87FC-4D19-8E7B-607A85CA20CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A915F0-28FC-4063-855A-1F662BAFF6E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24015" windowHeight="8460" xr2:uid="{6D299AAA-4D0C-46B6-97A3-EE8DB9A2C16D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,10 +26,30 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>sin</t>
+  </si>
+  <si>
+    <t>cos</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -60,9 +81,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -377,3662 +399,5106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BAF37E-DB42-4A20-8D18-6629C0A81E3D}">
-  <dimension ref="A1:D361"/>
+  <dimension ref="A1:F361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B1" sqref="B1:B361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
+        <f>RADIANS(A1)</f>
+        <v>0</v>
+      </c>
+      <c r="C1">
         <f>COS(RADIANS(A1))</f>
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="F1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <f t="shared" ref="B2:B65" si="0">RADIANS(A2)</f>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="C2">
         <f>COS(RADIANS(A2))</f>
         <v>0.99984769515639127</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">COS(RADIANS(A3))</f>
+        <f t="shared" si="0"/>
+        <v>3.4906585039886591E-2</v>
+      </c>
+      <c r="C3">
+        <f>COS(RADIANS(A3))</f>
         <v>0.99939082701909576</v>
       </c>
-      <c r="D3">
-        <f>D2+3</f>
+      <c r="F3">
+        <f>F2+3</f>
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
+        <v>5.235987755982989E-2</v>
+      </c>
+      <c r="C4">
+        <f>COS(RADIANS(A4))</f>
         <v>0.99862953475457383</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D67" si="1">D3+3</f>
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="1">F3+3</f>
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
+        <v>6.9813170079773182E-2</v>
+      </c>
+      <c r="C5">
+        <f>COS(RADIANS(A5))</f>
         <v>0.9975640502598242</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
+        <v>8.7266462599716474E-2</v>
+      </c>
+      <c r="C6">
+        <f>COS(RADIANS(A6))</f>
         <v>0.99619469809174555</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
+        <v>0.10471975511965978</v>
+      </c>
+      <c r="C7">
+        <f>COS(RADIANS(A7))</f>
         <v>0.99452189536827329</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
+        <v>0.12217304763960307</v>
+      </c>
+      <c r="C8">
+        <f>COS(RADIANS(A8))</f>
         <v>0.99254615164132198</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
+        <v>0.13962634015954636</v>
+      </c>
+      <c r="C9">
+        <f>COS(RADIANS(A9))</f>
         <v>0.99026806874157036</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
+        <v>0.15707963267948966</v>
+      </c>
+      <c r="C10">
+        <f>COS(RADIANS(A10))</f>
         <v>0.98768834059513777</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="C11">
+        <f>COS(RADIANS(A11))</f>
         <v>0.98480775301220802</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
+        <v>0.19198621771937624</v>
+      </c>
+      <c r="C12">
+        <f>COS(RADIANS(A12))</f>
         <v>0.98162718344766398</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
+        <v>0.20943951023931956</v>
+      </c>
+      <c r="C13">
+        <f>COS(RADIANS(A13))</f>
         <v>0.97814760073380569</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
+        <v>0.22689280275926285</v>
+      </c>
+      <c r="C14">
+        <f>COS(RADIANS(A14))</f>
         <v>0.97437006478523525</v>
       </c>
-      <c r="D14">
-        <f>D13+3</f>
+      <c r="F14">
+        <f>F13+3</f>
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
+        <v>0.24434609527920614</v>
+      </c>
+      <c r="C15">
+        <f>COS(RADIANS(A15))</f>
         <v>0.97029572627599647</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
+        <v>0.26179938779914941</v>
+      </c>
+      <c r="C16">
+        <f>COS(RADIANS(A16))</f>
         <v>0.96592582628906831</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
+        <v>0.27925268031909273</v>
+      </c>
+      <c r="C17">
+        <f>COS(RADIANS(A17))</f>
         <v>0.96126169593831889</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
+        <v>0.29670597283903605</v>
+      </c>
+      <c r="C18">
+        <f>COS(RADIANS(A18))</f>
         <v>0.95630475596303544</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
+        <v>0.31415926535897931</v>
+      </c>
+      <c r="C19">
+        <f>COS(RADIANS(A19))</f>
         <v>0.95105651629515353</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
+        <v>0.33161255787892263</v>
+      </c>
+      <c r="C20">
+        <f>COS(RADIANS(A20))</f>
         <v>0.94551857559931685</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="C21">
+        <f>COS(RADIANS(A21))</f>
         <v>0.93969262078590843</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
+        <v>0.36651914291880922</v>
+      </c>
+      <c r="C22">
+        <f>COS(RADIANS(A22))</f>
         <v>0.93358042649720174</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
+        <v>0.38397243543875248</v>
+      </c>
+      <c r="C23">
+        <f>COS(RADIANS(A23))</f>
         <v>0.92718385456678742</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
+        <v>0.4014257279586958</v>
+      </c>
+      <c r="C24">
+        <f>COS(RADIANS(A24))</f>
         <v>0.92050485345244037</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
+        <v>0.41887902047863912</v>
+      </c>
+      <c r="C25">
+        <f>COS(RADIANS(A25))</f>
         <v>0.91354545764260087</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
+        <v>0.43633231299858238</v>
+      </c>
+      <c r="C26">
+        <f>COS(RADIANS(A26))</f>
         <v>0.90630778703664994</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
+        <v>0.4537856055185257</v>
+      </c>
+      <c r="C27">
+        <f>COS(RADIANS(A27))</f>
         <v>0.89879404629916704</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
+        <v>0.47123889803846897</v>
+      </c>
+      <c r="C28">
+        <f>COS(RADIANS(A28))</f>
         <v>0.8910065241883679</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
+        <v>0.48869219055841229</v>
+      </c>
+      <c r="C29">
+        <f>COS(RADIANS(A29))</f>
         <v>0.88294759285892699</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
+        <v>0.50614548307835561</v>
+      </c>
+      <c r="C30">
+        <f>COS(RADIANS(A30))</f>
         <v>0.87461970713939574</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="C31">
+        <f>COS(RADIANS(A31))</f>
         <v>0.86602540378443871</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
+        <v>0.54105206811824214</v>
+      </c>
+      <c r="C32">
+        <f>COS(RADIANS(A32))</f>
         <v>0.85716730070211233</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
+        <v>0.55850536063818546</v>
+      </c>
+      <c r="C33">
+        <f>COS(RADIANS(A33))</f>
         <v>0.84804809615642596</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
+        <v>0.57595865315812877</v>
+      </c>
+      <c r="C34">
+        <f>COS(RADIANS(A34))</f>
         <v>0.83867056794542405</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
+        <v>0.59341194567807209</v>
+      </c>
+      <c r="C35">
+        <f>COS(RADIANS(A35))</f>
         <v>0.82903757255504162</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
+        <v>0.6108652381980153</v>
+      </c>
+      <c r="C36">
+        <f>COS(RADIANS(A36))</f>
         <v>0.8191520442889918</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
+        <v>0.62831853071795862</v>
+      </c>
+      <c r="C37">
+        <f>COS(RADIANS(A37))</f>
         <v>0.80901699437494745</v>
       </c>
-      <c r="D37">
-        <f>D36+3</f>
+      <c r="F37">
+        <f>F36+3</f>
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
+        <v>0.64577182323790194</v>
+      </c>
+      <c r="C38">
+        <f>COS(RADIANS(A38))</f>
         <v>0.79863551004729283</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
+        <v>0.66322511575784526</v>
+      </c>
+      <c r="C39">
+        <f>COS(RADIANS(A39))</f>
         <v>0.7880107536067219</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
+        <v>0.68067840827778847</v>
+      </c>
+      <c r="C40">
+        <f>COS(RADIANS(A40))</f>
         <v>0.7771459614569709</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="C41">
+        <f>COS(RADIANS(A41))</f>
         <v>0.76604444311897801</v>
       </c>
-      <c r="D41">
+      <c r="F41">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
+        <v>0.71558499331767511</v>
+      </c>
+      <c r="C42">
+        <f>COS(RADIANS(A42))</f>
         <v>0.75470958022277201</v>
       </c>
-      <c r="D42">
+      <c r="F42">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
+        <v>0.73303828583761843</v>
+      </c>
+      <c r="C43">
+        <f>COS(RADIANS(A43))</f>
         <v>0.74314482547739424</v>
       </c>
-      <c r="D43">
+      <c r="F43">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
+        <v>0.75049157835756175</v>
+      </c>
+      <c r="C44">
+        <f>COS(RADIANS(A44))</f>
         <v>0.73135370161917046</v>
       </c>
-      <c r="D44">
+      <c r="F44">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
+        <v>0.76794487087750496</v>
+      </c>
+      <c r="C45">
+        <f>COS(RADIANS(A45))</f>
         <v>0.71933980033865119</v>
       </c>
-      <c r="D45">
+      <c r="F45">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C46">
+        <f>COS(RADIANS(A46))</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="D46">
+      <c r="F46">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
+        <v>0.8028514559173916</v>
+      </c>
+      <c r="C47">
+        <f>COS(RADIANS(A47))</f>
         <v>0.69465837045899725</v>
       </c>
-      <c r="D47">
+      <c r="F47">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
+        <v>0.82030474843733492</v>
+      </c>
+      <c r="C48">
+        <f>COS(RADIANS(A48))</f>
         <v>0.68199836006249848</v>
       </c>
-      <c r="D48">
+      <c r="F48">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
+        <v>0.83775804095727824</v>
+      </c>
+      <c r="C49">
+        <f>COS(RADIANS(A49))</f>
         <v>0.66913060635885824</v>
       </c>
-      <c r="D49">
+      <c r="F49">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
+        <v>0.85521133347722145</v>
+      </c>
+      <c r="C50">
+        <f>COS(RADIANS(A50))</f>
         <v>0.65605902899050728</v>
       </c>
-      <c r="D50">
-        <f>D49+3</f>
+      <c r="F50">
+        <f>F49+3</f>
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="C51">
+        <f>COS(RADIANS(A51))</f>
         <v>0.64278760968653936</v>
       </c>
-      <c r="D51">
+      <c r="F51">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
+        <v>0.89011791851710809</v>
+      </c>
+      <c r="C52">
+        <f>COS(RADIANS(A52))</f>
         <v>0.6293203910498375</v>
       </c>
-      <c r="D52">
+      <c r="F52">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
+        <v>0.90757121103705141</v>
+      </c>
+      <c r="C53">
+        <f>COS(RADIANS(A53))</f>
         <v>0.61566147532565829</v>
       </c>
-      <c r="D53">
+      <c r="F53">
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
+        <v>0.92502450355699462</v>
+      </c>
+      <c r="C54">
+        <f>COS(RADIANS(A54))</f>
         <v>0.60181502315204838</v>
       </c>
-      <c r="D54">
+      <c r="F54">
         <f t="shared" si="1"/>
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
+        <v>0.94247779607693793</v>
+      </c>
+      <c r="C55">
+        <f>COS(RADIANS(A55))</f>
         <v>0.58778525229247314</v>
       </c>
-      <c r="D55">
+      <c r="F55">
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
+        <v>0.95993108859688125</v>
+      </c>
+      <c r="C56">
+        <f>COS(RADIANS(A56))</f>
         <v>0.57357643635104616</v>
       </c>
-      <c r="D56">
+      <c r="F56">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
+        <v>0.97738438111682457</v>
+      </c>
+      <c r="C57">
+        <f>COS(RADIANS(A57))</f>
         <v>0.55919290347074679</v>
       </c>
-      <c r="D57">
-        <f>D56+3</f>
+      <c r="F57">
+        <f>F56+3</f>
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
+        <v>0.99483767363676789</v>
+      </c>
+      <c r="C58">
+        <f>COS(RADIANS(A58))</f>
         <v>0.54463903501502708</v>
       </c>
-      <c r="D58">
+      <c r="F58">
         <f t="shared" si="1"/>
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
+        <v>1.0122909661567112</v>
+      </c>
+      <c r="C59">
+        <f>COS(RADIANS(A59))</f>
         <v>0.5299192642332049</v>
       </c>
-      <c r="D59">
+      <c r="F59">
         <f t="shared" si="1"/>
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
+        <v>1.0297442586766545</v>
+      </c>
+      <c r="C60">
+        <f>COS(RADIANS(A60))</f>
         <v>0.51503807491005416</v>
       </c>
-      <c r="D60">
+      <c r="F60">
         <f t="shared" si="1"/>
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="C61">
+        <f>COS(RADIANS(A61))</f>
         <v>0.50000000000000011</v>
       </c>
-      <c r="D61">
+      <c r="F61">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
+        <v>1.064650843716541</v>
+      </c>
+      <c r="C62">
+        <f>COS(RADIANS(A62))</f>
         <v>0.48480962024633711</v>
       </c>
-      <c r="D62">
+      <c r="F62">
         <f t="shared" si="1"/>
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
+        <v>1.0821041362364843</v>
+      </c>
+      <c r="C63">
+        <f>COS(RADIANS(A63))</f>
         <v>0.46947156278589086</v>
       </c>
-      <c r="D63">
+      <c r="F63">
         <f t="shared" si="1"/>
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
+        <v>1.0995574287564276</v>
+      </c>
+      <c r="C64">
+        <f>COS(RADIANS(A64))</f>
         <v>0.4539904997395468</v>
       </c>
-      <c r="D64">
+      <c r="F64">
         <f t="shared" si="1"/>
         <v>189</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
+        <v>1.1170107212763709</v>
+      </c>
+      <c r="C65">
+        <f>COS(RADIANS(A65))</f>
         <v>0.43837114678907746</v>
       </c>
-      <c r="D65">
+      <c r="F65">
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B66:B129" si="2">RADIANS(A66)</f>
+        <v>1.1344640137963142</v>
+      </c>
+      <c r="C66">
+        <f>COS(RADIANS(A66))</f>
         <v>0.42261826174069944</v>
       </c>
-      <c r="D66">
+      <c r="F66">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B130" si="2">COS(RADIANS(A67))</f>
+        <f t="shared" si="2"/>
+        <v>1.1519173063162575</v>
+      </c>
+      <c r="C67">
+        <f>COS(RADIANS(A67))</f>
         <v>0.40673664307580021</v>
       </c>
-      <c r="D67">
+      <c r="F67">
         <f t="shared" si="1"/>
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
         <f t="shared" si="2"/>
+        <v>1.1693705988362009</v>
+      </c>
+      <c r="C68">
+        <f>COS(RADIANS(A68))</f>
         <v>0.39073112848927372</v>
       </c>
-      <c r="D68">
-        <f t="shared" ref="D68:D76" si="3">D67+3</f>
+      <c r="F68">
+        <f t="shared" ref="F68:F76" si="3">F67+3</f>
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
         <f t="shared" si="2"/>
+        <v>1.1868238913561442</v>
+      </c>
+      <c r="C69">
+        <f>COS(RADIANS(A69))</f>
         <v>0.37460659341591196</v>
       </c>
-      <c r="D69">
+      <c r="F69">
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
         <f t="shared" si="2"/>
+        <v>1.2042771838760873</v>
+      </c>
+      <c r="C70">
+        <f>COS(RADIANS(A70))</f>
         <v>0.35836794954530038</v>
       </c>
-      <c r="D70">
+      <c r="F70">
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
         <f t="shared" si="2"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="C71">
+        <f>COS(RADIANS(A71))</f>
         <v>0.34202014332566882</v>
       </c>
-      <c r="D71">
+      <c r="F71">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
         <f t="shared" si="2"/>
+        <v>1.2391837689159739</v>
+      </c>
+      <c r="C72">
+        <f>COS(RADIANS(A72))</f>
         <v>0.32556815445715676</v>
       </c>
-      <c r="D72">
+      <c r="F72">
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
         <f t="shared" si="2"/>
+        <v>1.2566370614359172</v>
+      </c>
+      <c r="C73">
+        <f>COS(RADIANS(A73))</f>
         <v>0.30901699437494745</v>
       </c>
-      <c r="D73">
+      <c r="F73">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
         <f t="shared" si="2"/>
+        <v>1.2740903539558606</v>
+      </c>
+      <c r="C74">
+        <f>COS(RADIANS(A74))</f>
         <v>0.29237170472273677</v>
       </c>
-      <c r="D74">
+      <c r="F74">
         <f t="shared" si="3"/>
         <v>219</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
         <f t="shared" si="2"/>
+        <v>1.2915436464758039</v>
+      </c>
+      <c r="C75">
+        <f>COS(RADIANS(A75))</f>
         <v>0.27563735581699916</v>
       </c>
-      <c r="D75">
+      <c r="F75">
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
         <f t="shared" si="2"/>
+        <v>1.3089969389957472</v>
+      </c>
+      <c r="C76">
+        <f>COS(RADIANS(A76))</f>
         <v>0.25881904510252074</v>
       </c>
-      <c r="D76">
+      <c r="F76">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
         <f t="shared" si="2"/>
+        <v>1.3264502315156905</v>
+      </c>
+      <c r="C77">
+        <f>COS(RADIANS(A77))</f>
         <v>0.24192189559966767</v>
       </c>
-      <c r="D77">
-        <f>D76+3</f>
+      <c r="F77">
+        <f>F76+3</f>
         <v>228</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
         <f t="shared" si="2"/>
+        <v>1.3439035240356338</v>
+      </c>
+      <c r="C78">
+        <f>COS(RADIANS(A78))</f>
         <v>0.22495105434386492</v>
       </c>
-      <c r="D78">
-        <f t="shared" ref="D78:D101" si="4">D77+3</f>
+      <c r="F78">
+        <f t="shared" ref="F78:F101" si="4">F77+3</f>
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
         <f t="shared" si="2"/>
+        <v>1.3613568165555769</v>
+      </c>
+      <c r="C79">
+        <f>COS(RADIANS(A79))</f>
         <v>0.20791169081775945</v>
       </c>
-      <c r="D79">
+      <c r="F79">
         <f t="shared" si="4"/>
         <v>234</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
         <f t="shared" si="2"/>
+        <v>1.3788101090755203</v>
+      </c>
+      <c r="C80">
+        <f>COS(RADIANS(A80))</f>
         <v>0.19080899537654492</v>
       </c>
-      <c r="D80">
+      <c r="F80">
         <f t="shared" si="4"/>
         <v>237</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
         <f t="shared" si="2"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="C81">
+        <f>COS(RADIANS(A81))</f>
         <v>0.17364817766693041</v>
       </c>
-      <c r="D81">
+      <c r="F81">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
         <f t="shared" si="2"/>
+        <v>1.4137166941154069</v>
+      </c>
+      <c r="C82">
+        <f>COS(RADIANS(A82))</f>
         <v>0.15643446504023092</v>
       </c>
-      <c r="D82">
+      <c r="F82">
         <f t="shared" si="4"/>
         <v>243</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
         <f t="shared" si="2"/>
+        <v>1.4311699866353502</v>
+      </c>
+      <c r="C83">
+        <f>COS(RADIANS(A83))</f>
         <v>0.13917310096006547</v>
       </c>
-      <c r="D83">
+      <c r="F83">
         <f t="shared" si="4"/>
         <v>246</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
         <f t="shared" si="2"/>
+        <v>1.4486232791552935</v>
+      </c>
+      <c r="C84">
+        <f>COS(RADIANS(A84))</f>
         <v>0.12186934340514749</v>
       </c>
-      <c r="D84">
+      <c r="F84">
         <f t="shared" si="4"/>
         <v>249</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
         <f t="shared" si="2"/>
+        <v>1.4660765716752369</v>
+      </c>
+      <c r="C85">
+        <f>COS(RADIANS(A85))</f>
         <v>0.10452846326765346</v>
       </c>
-      <c r="D85">
+      <c r="F85">
         <f t="shared" si="4"/>
         <v>252</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
         <f t="shared" si="2"/>
+        <v>1.4835298641951802</v>
+      </c>
+      <c r="C86">
+        <f>COS(RADIANS(A86))</f>
         <v>8.7155742747658138E-2</v>
       </c>
-      <c r="D86">
+      <c r="F86">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
         <f t="shared" si="2"/>
+        <v>1.5009831567151235</v>
+      </c>
+      <c r="C87">
+        <f>COS(RADIANS(A87))</f>
         <v>6.9756473744125233E-2</v>
       </c>
-      <c r="D87">
+      <c r="F87">
         <f t="shared" si="4"/>
         <v>258</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
         <f t="shared" si="2"/>
+        <v>1.5184364492350666</v>
+      </c>
+      <c r="C88">
+        <f>COS(RADIANS(A88))</f>
         <v>5.2335956242943966E-2</v>
       </c>
-      <c r="D88">
+      <c r="F88">
         <f t="shared" si="4"/>
         <v>261</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
         <f t="shared" si="2"/>
+        <v>1.5358897417550099</v>
+      </c>
+      <c r="C89">
+        <f>COS(RADIANS(A89))</f>
         <v>3.489949670250108E-2</v>
       </c>
-      <c r="D89">
+      <c r="F89">
         <f t="shared" si="4"/>
         <v>264</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
         <f t="shared" si="2"/>
+        <v>1.5533430342749532</v>
+      </c>
+      <c r="C90">
+        <f>COS(RADIANS(A90))</f>
         <v>1.7452406437283598E-2</v>
       </c>
-      <c r="D90">
+      <c r="F90">
         <f t="shared" si="4"/>
         <v>267</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
         <f t="shared" si="2"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="C91">
+        <f>COS(RADIANS(A91))</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="D91">
+      <c r="F91">
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
         <f t="shared" si="2"/>
+        <v>1.5882496193148399</v>
+      </c>
+      <c r="C92">
+        <f>COS(RADIANS(A92))</f>
         <v>-1.7452406437283477E-2</v>
       </c>
-      <c r="D92">
+      <c r="F92">
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
         <f t="shared" si="2"/>
+        <v>1.6057029118347832</v>
+      </c>
+      <c r="C93">
+        <f>COS(RADIANS(A93))</f>
         <v>-3.4899496702500955E-2</v>
       </c>
-      <c r="D93">
+      <c r="F93">
         <f t="shared" si="4"/>
         <v>276</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
         <f t="shared" si="2"/>
+        <v>1.6231562043547265</v>
+      </c>
+      <c r="C94">
+        <f>COS(RADIANS(A94))</f>
         <v>-5.2335956242943842E-2</v>
       </c>
-      <c r="D94">
+      <c r="F94">
         <f t="shared" si="4"/>
         <v>279</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
         <f t="shared" si="2"/>
+        <v>1.6406094968746698</v>
+      </c>
+      <c r="C95">
+        <f>COS(RADIANS(A95))</f>
         <v>-6.975647374412533E-2</v>
       </c>
-      <c r="D95">
+      <c r="F95">
         <f t="shared" si="4"/>
         <v>282</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
         <f t="shared" si="2"/>
+        <v>1.6580627893946132</v>
+      </c>
+      <c r="C96">
+        <f>COS(RADIANS(A96))</f>
         <v>-8.7155742747658235E-2</v>
       </c>
-      <c r="D96">
+      <c r="F96">
         <f t="shared" si="4"/>
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
         <f t="shared" si="2"/>
+        <v>1.6755160819145565</v>
+      </c>
+      <c r="C97">
+        <f>COS(RADIANS(A97))</f>
         <v>-0.10452846326765355</v>
       </c>
-      <c r="D97">
+      <c r="F97">
         <f t="shared" si="4"/>
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
         <f t="shared" si="2"/>
+        <v>1.6929693744344996</v>
+      </c>
+      <c r="C98">
+        <f>COS(RADIANS(A98))</f>
         <v>-0.12186934340514737</v>
       </c>
-      <c r="D98">
+      <c r="F98">
         <f t="shared" si="4"/>
         <v>291</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
         <f t="shared" si="2"/>
+        <v>1.7104226669544429</v>
+      </c>
+      <c r="C99">
+        <f>COS(RADIANS(A99))</f>
         <v>-0.13917310096006535</v>
       </c>
-      <c r="D99">
+      <c r="F99">
         <f t="shared" si="4"/>
         <v>294</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
         <f t="shared" si="2"/>
+        <v>1.7278759594743862</v>
+      </c>
+      <c r="C100">
+        <f>COS(RADIANS(A100))</f>
         <v>-0.15643446504023081</v>
       </c>
-      <c r="D100">
+      <c r="F100">
         <f t="shared" si="4"/>
         <v>297</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
         <f t="shared" si="2"/>
+        <v>1.7453292519943295</v>
+      </c>
+      <c r="C101">
+        <f>COS(RADIANS(A101))</f>
         <v>-0.1736481776669303</v>
       </c>
-      <c r="D101">
+      <c r="F101">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
         <f t="shared" si="2"/>
+        <v>1.7627825445142729</v>
+      </c>
+      <c r="C102">
+        <f>COS(RADIANS(A102))</f>
         <v>-0.1908089953765448</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
         <f t="shared" si="2"/>
+        <v>1.7802358370342162</v>
+      </c>
+      <c r="C103">
+        <f>COS(RADIANS(A103))</f>
         <v>-0.20791169081775934</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
         <f t="shared" si="2"/>
+        <v>1.7976891295541595</v>
+      </c>
+      <c r="C104">
+        <f>COS(RADIANS(A104))</f>
         <v>-0.22495105434386503</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
         <f t="shared" si="2"/>
+        <v>1.8151424220741028</v>
+      </c>
+      <c r="C105">
+        <f>COS(RADIANS(A105))</f>
         <v>-0.24192189559966779</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
         <f t="shared" si="2"/>
+        <v>1.8325957145940461</v>
+      </c>
+      <c r="C106">
+        <f>COS(RADIANS(A106))</f>
         <v>-0.25881904510252085</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
         <f t="shared" si="2"/>
+        <v>1.8500490071139892</v>
+      </c>
+      <c r="C107">
+        <f>COS(RADIANS(A107))</f>
         <v>-0.27563735581699905</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
         <f t="shared" si="2"/>
+        <v>1.8675022996339325</v>
+      </c>
+      <c r="C108">
+        <f>COS(RADIANS(A108))</f>
         <v>-0.29237170472273666</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
         <f t="shared" si="2"/>
+        <v>1.8849555921538759</v>
+      </c>
+      <c r="C109">
+        <f>COS(RADIANS(A109))</f>
         <v>-0.30901699437494734</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
         <f t="shared" si="2"/>
+        <v>1.9024088846738192</v>
+      </c>
+      <c r="C110">
+        <f>COS(RADIANS(A110))</f>
         <v>-0.32556815445715664</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
         <f t="shared" si="2"/>
+        <v>1.9198621771937625</v>
+      </c>
+      <c r="C111">
+        <f>COS(RADIANS(A111))</f>
         <v>-0.34202014332566871</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
         <f t="shared" si="2"/>
+        <v>1.9373154697137058</v>
+      </c>
+      <c r="C112">
+        <f>COS(RADIANS(A112))</f>
         <v>-0.35836794954530027</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113">
         <f t="shared" si="2"/>
+        <v>1.9547687622336491</v>
+      </c>
+      <c r="C113">
+        <f>COS(RADIANS(A113))</f>
         <v>-0.37460659341591207</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114">
         <f t="shared" si="2"/>
+        <v>1.9722220547535925</v>
+      </c>
+      <c r="C114">
+        <f>COS(RADIANS(A114))</f>
         <v>-0.39073112848927377</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115">
         <f t="shared" si="2"/>
+        <v>1.9896753472735358</v>
+      </c>
+      <c r="C115">
+        <f>COS(RADIANS(A115))</f>
         <v>-0.40673664307580026</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116">
         <f t="shared" si="2"/>
+        <v>2.0071286397934789</v>
+      </c>
+      <c r="C116">
+        <f>COS(RADIANS(A116))</f>
         <v>-0.42261826174069933</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117">
         <f t="shared" si="2"/>
+        <v>2.0245819323134224</v>
+      </c>
+      <c r="C117">
+        <f>COS(RADIANS(A117))</f>
         <v>-0.43837114678907751</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118">
         <f t="shared" si="2"/>
+        <v>2.0420352248333655</v>
+      </c>
+      <c r="C118">
+        <f>COS(RADIANS(A118))</f>
         <v>-0.45399049973954669</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119">
         <f t="shared" si="2"/>
+        <v>2.0594885173533091</v>
+      </c>
+      <c r="C119">
+        <f>COS(RADIANS(A119))</f>
         <v>-0.46947156278589092</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120">
         <f t="shared" si="2"/>
+        <v>2.0769418098732522</v>
+      </c>
+      <c r="C120">
+        <f>COS(RADIANS(A120))</f>
         <v>-0.484809620246337</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121">
         <f t="shared" si="2"/>
+        <v>2.0943951023931953</v>
+      </c>
+      <c r="C121">
+        <f>COS(RADIANS(A121))</f>
         <v>-0.49999999999999978</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122">
         <f t="shared" si="2"/>
+        <v>2.1118483949131388</v>
+      </c>
+      <c r="C122">
+        <f>COS(RADIANS(A122))</f>
         <v>-0.51503807491005427</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123">
         <f t="shared" si="2"/>
+        <v>2.1293016874330819</v>
+      </c>
+      <c r="C123">
+        <f>COS(RADIANS(A123))</f>
         <v>-0.52991926423320479</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124">
         <f t="shared" si="2"/>
+        <v>2.1467549799530254</v>
+      </c>
+      <c r="C124">
+        <f>COS(RADIANS(A124))</f>
         <v>-0.54463903501502708</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125">
         <f t="shared" si="2"/>
+        <v>2.1642082724729685</v>
+      </c>
+      <c r="C125">
+        <f>COS(RADIANS(A125))</f>
         <v>-0.55919290347074668</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126">
         <f t="shared" si="2"/>
+        <v>2.1816615649929121</v>
+      </c>
+      <c r="C126">
+        <f>COS(RADIANS(A126))</f>
         <v>-0.57357643635104616</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127">
         <f t="shared" si="2"/>
+        <v>2.1991148575128552</v>
+      </c>
+      <c r="C127">
+        <f>COS(RADIANS(A127))</f>
         <v>-0.58778525229247303</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128">
         <f t="shared" si="2"/>
+        <v>2.2165681500327987</v>
+      </c>
+      <c r="C128">
+        <f>COS(RADIANS(A128))</f>
         <v>-0.60181502315204838</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129">
         <f t="shared" si="2"/>
+        <v>2.2340214425527418</v>
+      </c>
+      <c r="C129">
+        <f>COS(RADIANS(A129))</f>
         <v>-0.61566147532565829</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B130:B193" si="5">RADIANS(A130)</f>
+        <v>2.2514747350726849</v>
+      </c>
+      <c r="C130">
+        <f>COS(RADIANS(A130))</f>
         <v>-0.62932039104983728</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131">
-        <f t="shared" ref="B131:B194" si="5">COS(RADIANS(A131))</f>
+        <f t="shared" si="5"/>
+        <v>2.2689280275926285</v>
+      </c>
+      <c r="C131">
+        <f>COS(RADIANS(A131))</f>
         <v>-0.64278760968653936</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132">
         <f t="shared" si="5"/>
+        <v>2.2863813201125716</v>
+      </c>
+      <c r="C132">
+        <f>COS(RADIANS(A132))</f>
         <v>-0.65605902899050716</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133">
         <f t="shared" si="5"/>
+        <v>2.3038346126325151</v>
+      </c>
+      <c r="C133">
+        <f>COS(RADIANS(A133))</f>
         <v>-0.66913060635885824</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134">
         <f t="shared" si="5"/>
+        <v>2.3212879051524582</v>
+      </c>
+      <c r="C134">
+        <f>COS(RADIANS(A134))</f>
         <v>-0.68199836006249837</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135">
         <f t="shared" si="5"/>
+        <v>2.3387411976724017</v>
+      </c>
+      <c r="C135">
+        <f>COS(RADIANS(A135))</f>
         <v>-0.69465837045899737</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136">
         <f t="shared" si="5"/>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="C136">
+        <f>COS(RADIANS(A136))</f>
         <v>-0.70710678118654746</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137">
         <f t="shared" si="5"/>
+        <v>2.3736477827122884</v>
+      </c>
+      <c r="C137">
+        <f>COS(RADIANS(A137))</f>
         <v>-0.71933980033865119</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138">
         <f t="shared" si="5"/>
+        <v>2.3911010752322315</v>
+      </c>
+      <c r="C138">
+        <f>COS(RADIANS(A138))</f>
         <v>-0.73135370161917046</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139">
         <f t="shared" si="5"/>
+        <v>2.4085543677521746</v>
+      </c>
+      <c r="C139">
+        <f>COS(RADIANS(A139))</f>
         <v>-0.74314482547739402</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140">
         <f t="shared" si="5"/>
+        <v>2.4260076602721181</v>
+      </c>
+      <c r="C140">
+        <f>COS(RADIANS(A140))</f>
         <v>-0.75470958022277201</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141">
         <f t="shared" si="5"/>
+        <v>2.4434609527920612</v>
+      </c>
+      <c r="C141">
+        <f>COS(RADIANS(A141))</f>
         <v>-0.7660444431189779</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142">
         <f t="shared" si="5"/>
+        <v>2.4609142453120048</v>
+      </c>
+      <c r="C142">
+        <f>COS(RADIANS(A142))</f>
         <v>-0.7771459614569709</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143">
         <f t="shared" si="5"/>
+        <v>2.4783675378319479</v>
+      </c>
+      <c r="C143">
+        <f>COS(RADIANS(A143))</f>
         <v>-0.7880107536067219</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144">
         <f t="shared" si="5"/>
+        <v>2.4958208303518914</v>
+      </c>
+      <c r="C144">
+        <f>COS(RADIANS(A144))</f>
         <v>-0.79863551004729294</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145">
         <f t="shared" si="5"/>
+        <v>2.5132741228718345</v>
+      </c>
+      <c r="C145">
+        <f>COS(RADIANS(A145))</f>
         <v>-0.80901699437494734</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146">
         <f t="shared" si="5"/>
+        <v>2.530727415391778</v>
+      </c>
+      <c r="C146">
+        <f>COS(RADIANS(A146))</f>
         <v>-0.81915204428899191</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147">
         <f t="shared" si="5"/>
+        <v>2.5481807079117211</v>
+      </c>
+      <c r="C147">
+        <f>COS(RADIANS(A147))</f>
         <v>-0.82903757255504162</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
         <f t="shared" si="5"/>
+        <v>2.5656340004316642</v>
+      </c>
+      <c r="C148">
+        <f>COS(RADIANS(A148))</f>
         <v>-0.83867056794542394</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149">
         <f t="shared" si="5"/>
+        <v>2.5830872929516078</v>
+      </c>
+      <c r="C149">
+        <f>COS(RADIANS(A149))</f>
         <v>-0.84804809615642596</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150">
         <f t="shared" si="5"/>
+        <v>2.6005405854715509</v>
+      </c>
+      <c r="C150">
+        <f>COS(RADIANS(A150))</f>
         <v>-0.85716730070211222</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151">
         <f t="shared" si="5"/>
+        <v>2.6179938779914944</v>
+      </c>
+      <c r="C151">
+        <f>COS(RADIANS(A151))</f>
         <v>-0.86602540378443871</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152">
         <f t="shared" si="5"/>
+        <v>2.6354471705114375</v>
+      </c>
+      <c r="C152">
+        <f>COS(RADIANS(A152))</f>
         <v>-0.87461970713939574</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153">
         <f t="shared" si="5"/>
+        <v>2.6529004630313811</v>
+      </c>
+      <c r="C153">
+        <f>COS(RADIANS(A153))</f>
         <v>-0.88294759285892699</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154">
         <f t="shared" si="5"/>
+        <v>2.6703537555513241</v>
+      </c>
+      <c r="C154">
+        <f>COS(RADIANS(A154))</f>
         <v>-0.89100652418836779</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155">
         <f t="shared" si="5"/>
+        <v>2.6878070480712677</v>
+      </c>
+      <c r="C155">
+        <f>COS(RADIANS(A155))</f>
         <v>-0.89879404629916704</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156">
         <f t="shared" si="5"/>
+        <v>2.7052603405912108</v>
+      </c>
+      <c r="C156">
+        <f>COS(RADIANS(A156))</f>
         <v>-0.90630778703664994</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157">
         <f t="shared" si="5"/>
+        <v>2.7227136331111539</v>
+      </c>
+      <c r="C157">
+        <f>COS(RADIANS(A157))</f>
         <v>-0.91354545764260076</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158">
         <f t="shared" si="5"/>
+        <v>2.7401669256310974</v>
+      </c>
+      <c r="C158">
+        <f>COS(RADIANS(A158))</f>
         <v>-0.92050485345244037</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159">
         <f t="shared" si="5"/>
+        <v>2.7576202181510405</v>
+      </c>
+      <c r="C159">
+        <f>COS(RADIANS(A159))</f>
         <v>-0.92718385456678731</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160">
         <f t="shared" si="5"/>
+        <v>2.7750735106709841</v>
+      </c>
+      <c r="C160">
+        <f>COS(RADIANS(A160))</f>
         <v>-0.93358042649720174</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161">
         <f t="shared" si="5"/>
+        <v>2.7925268031909272</v>
+      </c>
+      <c r="C161">
+        <f>COS(RADIANS(A161))</f>
         <v>-0.93969262078590832</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162">
         <f t="shared" si="5"/>
+        <v>2.8099800957108707</v>
+      </c>
+      <c r="C162">
+        <f>COS(RADIANS(A162))</f>
         <v>-0.94551857559931685</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163">
         <f t="shared" si="5"/>
+        <v>2.8274333882308138</v>
+      </c>
+      <c r="C163">
+        <f>COS(RADIANS(A163))</f>
         <v>-0.95105651629515353</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164">
         <f t="shared" si="5"/>
+        <v>2.8448866807507573</v>
+      </c>
+      <c r="C164">
+        <f>COS(RADIANS(A164))</f>
         <v>-0.95630475596303555</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165">
         <f t="shared" si="5"/>
+        <v>2.8623399732707004</v>
+      </c>
+      <c r="C165">
+        <f>COS(RADIANS(A165))</f>
         <v>-0.96126169593831889</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166">
         <f t="shared" si="5"/>
+        <v>2.8797932657906435</v>
+      </c>
+      <c r="C166">
+        <f>COS(RADIANS(A166))</f>
         <v>-0.9659258262890682</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167">
         <f t="shared" si="5"/>
+        <v>2.8972465583105871</v>
+      </c>
+      <c r="C167">
+        <f>COS(RADIANS(A167))</f>
         <v>-0.97029572627599647</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168">
         <f t="shared" si="5"/>
+        <v>2.9146998508305302</v>
+      </c>
+      <c r="C168">
+        <f>COS(RADIANS(A168))</f>
         <v>-0.97437006478523513</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169">
         <f t="shared" si="5"/>
+        <v>2.9321531433504737</v>
+      </c>
+      <c r="C169">
+        <f>COS(RADIANS(A169))</f>
         <v>-0.97814760073380569</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170">
         <f t="shared" si="5"/>
+        <v>2.9496064358704168</v>
+      </c>
+      <c r="C170">
+        <f>COS(RADIANS(A170))</f>
         <v>-0.98162718344766398</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171">
         <f t="shared" si="5"/>
+        <v>2.9670597283903604</v>
+      </c>
+      <c r="C171">
+        <f>COS(RADIANS(A171))</f>
         <v>-0.98480775301220802</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172">
         <f t="shared" si="5"/>
+        <v>2.9845130209103035</v>
+      </c>
+      <c r="C172">
+        <f>COS(RADIANS(A172))</f>
         <v>-0.98768834059513766</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173">
         <f t="shared" si="5"/>
+        <v>3.001966313430247</v>
+      </c>
+      <c r="C173">
+        <f>COS(RADIANS(A173))</f>
         <v>-0.99026806874157036</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174">
         <f t="shared" si="5"/>
+        <v>3.0194196059501901</v>
+      </c>
+      <c r="C174">
+        <f>COS(RADIANS(A174))</f>
         <v>-0.99254615164132198</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175">
         <f t="shared" si="5"/>
+        <v>3.0368728984701332</v>
+      </c>
+      <c r="C175">
+        <f>COS(RADIANS(A175))</f>
         <v>-0.99452189536827329</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176">
         <f t="shared" si="5"/>
+        <v>3.0543261909900767</v>
+      </c>
+      <c r="C176">
+        <f>COS(RADIANS(A176))</f>
         <v>-0.99619469809174555</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177">
         <f t="shared" si="5"/>
+        <v>3.0717794835100198</v>
+      </c>
+      <c r="C177">
+        <f>COS(RADIANS(A177))</f>
         <v>-0.9975640502598242</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178">
         <f t="shared" si="5"/>
+        <v>3.0892327760299634</v>
+      </c>
+      <c r="C178">
+        <f>COS(RADIANS(A178))</f>
         <v>-0.99862953475457383</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179">
         <f t="shared" si="5"/>
+        <v>3.1066860685499065</v>
+      </c>
+      <c r="C179">
+        <f>COS(RADIANS(A179))</f>
         <v>-0.99939082701909576</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180">
         <f t="shared" si="5"/>
+        <v>3.12413936106985</v>
+      </c>
+      <c r="C180">
+        <f>COS(RADIANS(A180))</f>
         <v>-0.99984769515639127</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181">
         <f t="shared" si="5"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="C181">
+        <f>COS(RADIANS(A181))</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182">
         <f t="shared" si="5"/>
+        <v>3.1590459461097367</v>
+      </c>
+      <c r="C182">
+        <f>COS(RADIANS(A182))</f>
         <v>-0.99984769515639127</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183">
         <f t="shared" si="5"/>
+        <v>3.1764992386296798</v>
+      </c>
+      <c r="C183">
+        <f>COS(RADIANS(A183))</f>
         <v>-0.99939082701909576</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184">
         <f t="shared" si="5"/>
+        <v>3.1939525311496229</v>
+      </c>
+      <c r="C184">
+        <f>COS(RADIANS(A184))</f>
         <v>-0.99862953475457383</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185">
         <f t="shared" si="5"/>
+        <v>3.2114058236695664</v>
+      </c>
+      <c r="C185">
+        <f>COS(RADIANS(A185))</f>
         <v>-0.9975640502598242</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186">
         <f t="shared" si="5"/>
+        <v>3.2288591161895095</v>
+      </c>
+      <c r="C186">
+        <f>COS(RADIANS(A186))</f>
         <v>-0.99619469809174555</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187">
         <f t="shared" si="5"/>
+        <v>3.246312408709453</v>
+      </c>
+      <c r="C187">
+        <f>COS(RADIANS(A187))</f>
         <v>-0.99452189536827329</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188">
         <f t="shared" si="5"/>
+        <v>3.2637657012293961</v>
+      </c>
+      <c r="C188">
+        <f>COS(RADIANS(A188))</f>
         <v>-0.99254615164132209</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189">
         <f t="shared" si="5"/>
+        <v>3.2812189937493397</v>
+      </c>
+      <c r="C189">
+        <f>COS(RADIANS(A189))</f>
         <v>-0.99026806874157025</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190">
         <f t="shared" si="5"/>
+        <v>3.2986722862692828</v>
+      </c>
+      <c r="C190">
+        <f>COS(RADIANS(A190))</f>
         <v>-0.98768834059513777</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191">
         <f t="shared" si="5"/>
+        <v>3.3161255787892263</v>
+      </c>
+      <c r="C191">
+        <f>COS(RADIANS(A191))</f>
         <v>-0.98480775301220802</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192">
         <f t="shared" si="5"/>
+        <v>3.3335788713091694</v>
+      </c>
+      <c r="C192">
+        <f>COS(RADIANS(A192))</f>
         <v>-0.98162718344766398</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193">
         <f t="shared" si="5"/>
+        <v>3.351032163829113</v>
+      </c>
+      <c r="C193">
+        <f>COS(RADIANS(A193))</f>
         <v>-0.97814760073380558</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B194:B257" si="6">RADIANS(A194)</f>
+        <v>3.3684854563490561</v>
+      </c>
+      <c r="C194">
+        <f>COS(RADIANS(A194))</f>
         <v>-0.97437006478523525</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195">
-        <f t="shared" ref="B195:B258" si="6">COS(RADIANS(A195))</f>
+        <f t="shared" si="6"/>
+        <v>3.3859387488689991</v>
+      </c>
+      <c r="C195">
+        <f>COS(RADIANS(A195))</f>
         <v>-0.97029572627599647</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196">
         <f t="shared" si="6"/>
+        <v>3.4033920413889427</v>
+      </c>
+      <c r="C196">
+        <f>COS(RADIANS(A196))</f>
         <v>-0.96592582628906831</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197">
         <f t="shared" si="6"/>
+        <v>3.4208453339088858</v>
+      </c>
+      <c r="C197">
+        <f>COS(RADIANS(A197))</f>
         <v>-0.96126169593831889</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198">
         <f t="shared" si="6"/>
+        <v>3.4382986264288293</v>
+      </c>
+      <c r="C198">
+        <f>COS(RADIANS(A198))</f>
         <v>-0.95630475596303544</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199">
         <f t="shared" si="6"/>
+        <v>3.4557519189487724</v>
+      </c>
+      <c r="C199">
+        <f>COS(RADIANS(A199))</f>
         <v>-0.95105651629515364</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200">
         <f t="shared" si="6"/>
+        <v>3.473205211468716</v>
+      </c>
+      <c r="C200">
+        <f>COS(RADIANS(A200))</f>
         <v>-0.94551857559931674</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201">
         <f t="shared" si="6"/>
+        <v>3.4906585039886591</v>
+      </c>
+      <c r="C201">
+        <f>COS(RADIANS(A201))</f>
         <v>-0.93969262078590843</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202">
         <f t="shared" si="6"/>
+        <v>3.5081117965086026</v>
+      </c>
+      <c r="C202">
+        <f>COS(RADIANS(A202))</f>
         <v>-0.93358042649720174</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203">
         <f t="shared" si="6"/>
+        <v>3.5255650890285457</v>
+      </c>
+      <c r="C203">
+        <f>COS(RADIANS(A203))</f>
         <v>-0.92718385456678742</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204">
         <f t="shared" si="6"/>
+        <v>3.5430183815484888</v>
+      </c>
+      <c r="C204">
+        <f>COS(RADIANS(A204))</f>
         <v>-0.92050485345244037</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205">
         <f t="shared" si="6"/>
+        <v>3.5604716740684323</v>
+      </c>
+      <c r="C205">
+        <f>COS(RADIANS(A205))</f>
         <v>-0.91354545764260087</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206">
         <f t="shared" si="6"/>
+        <v>3.5779249665883754</v>
+      </c>
+      <c r="C206">
+        <f>COS(RADIANS(A206))</f>
         <v>-0.90630778703665005</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207">
         <f t="shared" si="6"/>
+        <v>3.595378259108319</v>
+      </c>
+      <c r="C207">
+        <f>COS(RADIANS(A207))</f>
         <v>-0.89879404629916693</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208">
         <f t="shared" si="6"/>
+        <v>3.6128315516282621</v>
+      </c>
+      <c r="C208">
+        <f>COS(RADIANS(A208))</f>
         <v>-0.8910065241883679</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209">
         <f t="shared" si="6"/>
+        <v>3.6302848441482056</v>
+      </c>
+      <c r="C209">
+        <f>COS(RADIANS(A209))</f>
         <v>-0.88294759285892688</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210">
         <f t="shared" si="6"/>
+        <v>3.6477381366681487</v>
+      </c>
+      <c r="C210">
+        <f>COS(RADIANS(A210))</f>
         <v>-0.87461970713939585</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211">
         <f t="shared" si="6"/>
+        <v>3.6651914291880923</v>
+      </c>
+      <c r="C211">
+        <f>COS(RADIANS(A211))</f>
         <v>-0.8660254037844386</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212">
         <f t="shared" si="6"/>
+        <v>3.6826447217080354</v>
+      </c>
+      <c r="C212">
+        <f>COS(RADIANS(A212))</f>
         <v>-0.85716730070211233</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213">
         <f t="shared" si="6"/>
+        <v>3.7000980142279785</v>
+      </c>
+      <c r="C213">
+        <f>COS(RADIANS(A213))</f>
         <v>-0.84804809615642607</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214">
         <f t="shared" si="6"/>
+        <v>3.717551306747922</v>
+      </c>
+      <c r="C214">
+        <f>COS(RADIANS(A214))</f>
         <v>-0.83867056794542405</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215">
         <f t="shared" si="6"/>
+        <v>3.7350045992678651</v>
+      </c>
+      <c r="C215">
+        <f>COS(RADIANS(A215))</f>
         <v>-0.82903757255504185</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216">
         <f t="shared" si="6"/>
+        <v>3.7524578917878086</v>
+      </c>
+      <c r="C216">
+        <f>COS(RADIANS(A216))</f>
         <v>-0.8191520442889918</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217">
         <f t="shared" si="6"/>
+        <v>3.7699111843077517</v>
+      </c>
+      <c r="C217">
+        <f>COS(RADIANS(A217))</f>
         <v>-0.80901699437494756</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218">
         <f t="shared" si="6"/>
+        <v>3.7873644768276953</v>
+      </c>
+      <c r="C218">
+        <f>COS(RADIANS(A218))</f>
         <v>-0.79863551004729283</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219">
         <f t="shared" si="6"/>
+        <v>3.8048177693476384</v>
+      </c>
+      <c r="C219">
+        <f>COS(RADIANS(A219))</f>
         <v>-0.78801075360672201</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220">
         <f t="shared" si="6"/>
+        <v>3.8222710618675819</v>
+      </c>
+      <c r="C220">
+        <f>COS(RADIANS(A220))</f>
         <v>-0.77714596145697079</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221">
         <f t="shared" si="6"/>
+        <v>3.839724354387525</v>
+      </c>
+      <c r="C221">
+        <f>COS(RADIANS(A221))</f>
         <v>-0.76604444311897801</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222">
         <f t="shared" si="6"/>
+        <v>3.8571776469074681</v>
+      </c>
+      <c r="C222">
+        <f>COS(RADIANS(A222))</f>
         <v>-0.75470958022277213</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223">
         <f t="shared" si="6"/>
+        <v>3.8746309394274117</v>
+      </c>
+      <c r="C223">
+        <f>COS(RADIANS(A223))</f>
         <v>-0.74314482547739424</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224">
         <f t="shared" si="6"/>
+        <v>3.8920842319473548</v>
+      </c>
+      <c r="C224">
+        <f>COS(RADIANS(A224))</f>
         <v>-0.73135370161917057</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225">
         <f t="shared" si="6"/>
+        <v>3.9095375244672983</v>
+      </c>
+      <c r="C225">
+        <f>COS(RADIANS(A225))</f>
         <v>-0.71933980033865108</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226">
         <f t="shared" si="6"/>
+        <v>3.9269908169872414</v>
+      </c>
+      <c r="C226">
+        <f>COS(RADIANS(A226))</f>
         <v>-0.70710678118654768</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227">
         <f t="shared" si="6"/>
+        <v>3.9444441095071849</v>
+      </c>
+      <c r="C227">
+        <f>COS(RADIANS(A227))</f>
         <v>-0.69465837045899725</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228">
         <f t="shared" si="6"/>
+        <v>3.961897402027128</v>
+      </c>
+      <c r="C228">
+        <f>COS(RADIANS(A228))</f>
         <v>-0.68199836006249859</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229">
         <f t="shared" si="6"/>
+        <v>3.9793506945470716</v>
+      </c>
+      <c r="C229">
+        <f>COS(RADIANS(A229))</f>
         <v>-0.66913060635885813</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230">
         <f t="shared" si="6"/>
+        <v>3.9968039870670147</v>
+      </c>
+      <c r="C230">
+        <f>COS(RADIANS(A230))</f>
         <v>-0.65605902899050728</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231">
         <f t="shared" si="6"/>
+        <v>4.0142572795869578</v>
+      </c>
+      <c r="C231">
+        <f>COS(RADIANS(A231))</f>
         <v>-0.64278760968653947</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232">
         <f t="shared" si="6"/>
+        <v>4.0317105721069009</v>
+      </c>
+      <c r="C232">
+        <f>COS(RADIANS(A232))</f>
         <v>-0.62932039104983784</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233">
         <f t="shared" si="6"/>
+        <v>4.0491638646268449</v>
+      </c>
+      <c r="C233">
+        <f>COS(RADIANS(A233))</f>
         <v>-0.61566147532565807</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234">
         <f t="shared" si="6"/>
+        <v>4.066617157146788</v>
+      </c>
+      <c r="C234">
+        <f>COS(RADIANS(A234))</f>
         <v>-0.60181502315204827</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235">
         <f t="shared" si="6"/>
+        <v>4.0840704496667311</v>
+      </c>
+      <c r="C235">
+        <f>COS(RADIANS(A235))</f>
         <v>-0.58778525229247325</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236">
         <f t="shared" si="6"/>
+        <v>4.1015237421866741</v>
+      </c>
+      <c r="C236">
+        <f>COS(RADIANS(A236))</f>
         <v>-0.57357643635104638</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237">
         <f t="shared" si="6"/>
+        <v>4.1189770347066181</v>
+      </c>
+      <c r="C237">
+        <f>COS(RADIANS(A237))</f>
         <v>-0.55919290347074657</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238">
         <f t="shared" si="6"/>
+        <v>4.1364303272265612</v>
+      </c>
+      <c r="C238">
+        <f>COS(RADIANS(A238))</f>
         <v>-0.54463903501502697</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239">
         <f t="shared" si="6"/>
+        <v>4.1538836197465043</v>
+      </c>
+      <c r="C239">
+        <f>COS(RADIANS(A239))</f>
         <v>-0.52991926423320501</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240">
         <f t="shared" si="6"/>
+        <v>4.1713369122664474</v>
+      </c>
+      <c r="C240">
+        <f>COS(RADIANS(A240))</f>
         <v>-0.51503807491005449</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241">
         <f t="shared" si="6"/>
+        <v>4.1887902047863905</v>
+      </c>
+      <c r="C241">
+        <f>COS(RADIANS(A241))</f>
         <v>-0.50000000000000044</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242">
         <f t="shared" si="6"/>
+        <v>4.2062434973063345</v>
+      </c>
+      <c r="C242">
+        <f>COS(RADIANS(A242))</f>
         <v>-0.48480962024633684</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243">
         <f t="shared" si="6"/>
+        <v>4.2236967898262776</v>
+      </c>
+      <c r="C243">
+        <f>COS(RADIANS(A243))</f>
         <v>-0.46947156278589075</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244">
         <f t="shared" si="6"/>
+        <v>4.2411500823462207</v>
+      </c>
+      <c r="C244">
+        <f>COS(RADIANS(A244))</f>
         <v>-0.45399049973954692</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245">
         <f t="shared" si="6"/>
+        <v>4.2586033748661638</v>
+      </c>
+      <c r="C245">
+        <f>COS(RADIANS(A245))</f>
         <v>-0.43837114678907774</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246">
         <f t="shared" si="6"/>
+        <v>4.2760566673861078</v>
+      </c>
+      <c r="C246">
+        <f>COS(RADIANS(A246))</f>
         <v>-0.42261826174069916</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247">
         <f t="shared" si="6"/>
+        <v>4.2935099599060509</v>
+      </c>
+      <c r="C247">
+        <f>COS(RADIANS(A247))</f>
         <v>-0.4067366430758001</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248">
         <f t="shared" si="6"/>
+        <v>4.310963252425994</v>
+      </c>
+      <c r="C248">
+        <f>COS(RADIANS(A248))</f>
         <v>-0.39073112848927383</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249">
         <f t="shared" si="6"/>
+        <v>4.3284165449459371</v>
+      </c>
+      <c r="C249">
+        <f>COS(RADIANS(A249))</f>
         <v>-0.37460659341591229</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250">
         <f t="shared" si="6"/>
+        <v>4.3458698374658802</v>
+      </c>
+      <c r="C250">
+        <f>COS(RADIANS(A250))</f>
         <v>-0.35836794954530071</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251">
         <f t="shared" si="6"/>
+        <v>4.3633231299858242</v>
+      </c>
+      <c r="C251">
+        <f>COS(RADIANS(A251))</f>
         <v>-0.34202014332566855</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252">
         <f t="shared" si="6"/>
+        <v>4.3807764225057673</v>
+      </c>
+      <c r="C252">
+        <f>COS(RADIANS(A252))</f>
         <v>-0.32556815445715664</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253">
         <f t="shared" si="6"/>
+        <v>4.3982297150257104</v>
+      </c>
+      <c r="C253">
+        <f>COS(RADIANS(A253))</f>
         <v>-0.30901699437494756</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254">
         <f t="shared" si="6"/>
+        <v>4.4156830075456535</v>
+      </c>
+      <c r="C254">
+        <f>COS(RADIANS(A254))</f>
         <v>-0.2923717047227371</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255">
         <f t="shared" si="6"/>
+        <v>4.4331363000655974</v>
+      </c>
+      <c r="C255">
+        <f>COS(RADIANS(A255))</f>
         <v>-0.27563735581699889</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256">
         <f t="shared" si="6"/>
+        <v>4.4505895925855405</v>
+      </c>
+      <c r="C256">
+        <f>COS(RADIANS(A256))</f>
         <v>-0.25881904510252063</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257">
         <f t="shared" si="6"/>
+        <v>4.4680428851054836</v>
+      </c>
+      <c r="C257">
+        <f>COS(RADIANS(A257))</f>
         <v>-0.24192189559966779</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B258:B321" si="7">RADIANS(A258)</f>
+        <v>4.4854961776254267</v>
+      </c>
+      <c r="C258">
+        <f>COS(RADIANS(A258))</f>
         <v>-0.22495105434386525</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259">
-        <f t="shared" ref="B259:B322" si="7">COS(RADIANS(A259))</f>
+        <f t="shared" si="7"/>
+        <v>4.5029494701453698</v>
+      </c>
+      <c r="C259">
+        <f>COS(RADIANS(A259))</f>
         <v>-0.20791169081775979</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260">
         <f t="shared" si="7"/>
+        <v>4.5204027626653138</v>
+      </c>
+      <c r="C260">
+        <f>COS(RADIANS(A260))</f>
         <v>-0.19080899537654461</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261">
         <f t="shared" si="7"/>
+        <v>4.5378560551852569</v>
+      </c>
+      <c r="C261">
+        <f>COS(RADIANS(A261))</f>
         <v>-0.17364817766693033</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262">
         <f t="shared" si="7"/>
+        <v>4.5553093477052</v>
+      </c>
+      <c r="C262">
+        <f>COS(RADIANS(A262))</f>
         <v>-0.15643446504023104</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263">
         <f t="shared" si="7"/>
+        <v>4.5727626402251431</v>
+      </c>
+      <c r="C263">
+        <f>COS(RADIANS(A263))</f>
         <v>-0.13917310096006583</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264">
         <f t="shared" si="7"/>
+        <v>4.5902159327450871</v>
+      </c>
+      <c r="C264">
+        <f>COS(RADIANS(A264))</f>
         <v>-0.12186934340514717</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265">
         <f t="shared" si="7"/>
+        <v>4.6076692252650302</v>
+      </c>
+      <c r="C265">
+        <f>COS(RADIANS(A265))</f>
         <v>-0.10452846326765336</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266">
         <f t="shared" si="7"/>
+        <v>4.6251225177849733</v>
+      </c>
+      <c r="C266">
+        <f>COS(RADIANS(A266))</f>
         <v>-8.7155742747658249E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267">
         <f t="shared" si="7"/>
+        <v>4.6425758103049164</v>
+      </c>
+      <c r="C267">
+        <f>COS(RADIANS(A267))</f>
         <v>-6.975647374412558E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268">
         <f t="shared" si="7"/>
+        <v>4.6600291028248595</v>
+      </c>
+      <c r="C268">
+        <f>COS(RADIANS(A268))</f>
         <v>-5.2335956242944306E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
       <c r="B269">
         <f t="shared" si="7"/>
+        <v>4.6774823953448035</v>
+      </c>
+      <c r="C269">
+        <f>COS(RADIANS(A269))</f>
         <v>-3.4899496702500761E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270">
         <f t="shared" si="7"/>
+        <v>4.6949356878647466</v>
+      </c>
+      <c r="C270">
+        <f>COS(RADIANS(A270))</f>
         <v>-1.7452406437283498E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271">
         <f t="shared" si="7"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="C271">
+        <f>COS(RADIANS(A271))</f>
         <v>-1.83772268236293E-16</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272">
         <f t="shared" si="7"/>
+        <v>4.7298422729046328</v>
+      </c>
+      <c r="C272">
+        <f>COS(RADIANS(A272))</f>
         <v>1.745240643728313E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
       <c r="B273">
         <f t="shared" si="7"/>
+        <v>4.7472955654245768</v>
+      </c>
+      <c r="C273">
+        <f>COS(RADIANS(A273))</f>
         <v>3.4899496702501281E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
       <c r="B274">
         <f t="shared" si="7"/>
+        <v>4.7647488579445199</v>
+      </c>
+      <c r="C274">
+        <f>COS(RADIANS(A274))</f>
         <v>5.2335956242943946E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
       <c r="B275">
         <f t="shared" si="7"/>
+        <v>4.782202150464463</v>
+      </c>
+      <c r="C275">
+        <f>COS(RADIANS(A275))</f>
         <v>6.9756473744125219E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
       <c r="B276">
         <f t="shared" si="7"/>
+        <v>4.7996554429844061</v>
+      </c>
+      <c r="C276">
+        <f>COS(RADIANS(A276))</f>
         <v>8.7155742747657888E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277">
         <f t="shared" si="7"/>
+        <v>4.8171087355043491</v>
+      </c>
+      <c r="C277">
+        <f>COS(RADIANS(A277))</f>
         <v>0.10452846326765299</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
       <c r="B278">
         <f t="shared" si="7"/>
+        <v>4.8345620280242931</v>
+      </c>
+      <c r="C278">
+        <f>COS(RADIANS(A278))</f>
         <v>0.12186934340514768</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
       <c r="B279">
         <f t="shared" si="7"/>
+        <v>4.8520153205442362</v>
+      </c>
+      <c r="C279">
+        <f>COS(RADIANS(A279))</f>
         <v>0.13917310096006547</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
       <c r="B280">
         <f t="shared" si="7"/>
+        <v>4.8694686130641793</v>
+      </c>
+      <c r="C280">
+        <f>COS(RADIANS(A280))</f>
         <v>0.15643446504023067</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
       <c r="B281">
         <f t="shared" si="7"/>
+        <v>4.8869219055841224</v>
+      </c>
+      <c r="C281">
+        <f>COS(RADIANS(A281))</f>
         <v>0.17364817766692997</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
       <c r="B282">
         <f t="shared" si="7"/>
+        <v>4.9043751981040664</v>
+      </c>
+      <c r="C282">
+        <f>COS(RADIANS(A282))</f>
         <v>0.19080899537654511</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
       <c r="B283">
         <f t="shared" si="7"/>
+        <v>4.9218284906240095</v>
+      </c>
+      <c r="C283">
+        <f>COS(RADIANS(A283))</f>
         <v>0.20791169081775943</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
       <c r="B284">
         <f t="shared" si="7"/>
+        <v>4.9392817831439526</v>
+      </c>
+      <c r="C284">
+        <f>COS(RADIANS(A284))</f>
         <v>0.22495105434386492</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
       <c r="B285">
         <f t="shared" si="7"/>
+        <v>4.9567350756638957</v>
+      </c>
+      <c r="C285">
+        <f>COS(RADIANS(A285))</f>
         <v>0.24192189559966745</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
       <c r="B286">
         <f t="shared" si="7"/>
+        <v>4.9741883681838388</v>
+      </c>
+      <c r="C286">
+        <f>COS(RADIANS(A286))</f>
         <v>0.2588190451025203</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
       <c r="B287">
         <f t="shared" si="7"/>
+        <v>4.9916416607037828</v>
+      </c>
+      <c r="C287">
+        <f>COS(RADIANS(A287))</f>
         <v>0.27563735581699939</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
       <c r="B288">
         <f t="shared" si="7"/>
+        <v>5.0090949532237259</v>
+      </c>
+      <c r="C288">
+        <f>COS(RADIANS(A288))</f>
         <v>0.29237170472273671</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
       <c r="B289">
         <f t="shared" si="7"/>
+        <v>5.026548245743669</v>
+      </c>
+      <c r="C289">
+        <f>COS(RADIANS(A289))</f>
         <v>0.30901699437494723</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
       <c r="B290">
         <f t="shared" si="7"/>
+        <v>5.0440015382636121</v>
+      </c>
+      <c r="C290">
+        <f>COS(RADIANS(A290))</f>
         <v>0.32556815445715631</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
       <c r="B291">
         <f t="shared" si="7"/>
+        <v>5.0614548307835561</v>
+      </c>
+      <c r="C291">
+        <f>COS(RADIANS(A291))</f>
         <v>0.34202014332566899</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
       <c r="B292">
         <f t="shared" si="7"/>
+        <v>5.0789081233034992</v>
+      </c>
+      <c r="C292">
+        <f>COS(RADIANS(A292))</f>
         <v>0.35836794954530038</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
       <c r="B293">
         <f t="shared" si="7"/>
+        <v>5.0963614158234423</v>
+      </c>
+      <c r="C293">
+        <f>COS(RADIANS(A293))</f>
         <v>0.37460659341591196</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
       <c r="B294">
         <f t="shared" si="7"/>
+        <v>5.1138147083433854</v>
+      </c>
+      <c r="C294">
+        <f>COS(RADIANS(A294))</f>
         <v>0.39073112848927349</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
       <c r="B295">
         <f t="shared" si="7"/>
+        <v>5.1312680008633285</v>
+      </c>
+      <c r="C295">
+        <f>COS(RADIANS(A295))</f>
         <v>0.40673664307579976</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
       <c r="B296">
         <f t="shared" si="7"/>
+        <v>5.1487212933832724</v>
+      </c>
+      <c r="C296">
+        <f>COS(RADIANS(A296))</f>
         <v>0.42261826174069961</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
       <c r="B297">
         <f t="shared" si="7"/>
+        <v>5.1661745859032155</v>
+      </c>
+      <c r="C297">
+        <f>COS(RADIANS(A297))</f>
         <v>0.4383711467890774</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
       <c r="B298">
         <f t="shared" si="7"/>
+        <v>5.1836278784231586</v>
+      </c>
+      <c r="C298">
+        <f>COS(RADIANS(A298))</f>
         <v>0.45399049973954664</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
       <c r="B299">
         <f t="shared" si="7"/>
+        <v>5.2010811709431017</v>
+      </c>
+      <c r="C299">
+        <f>COS(RADIANS(A299))</f>
         <v>0.46947156278589042</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
       <c r="B300">
         <f t="shared" si="7"/>
+        <v>5.2185344634630457</v>
+      </c>
+      <c r="C300">
+        <f>COS(RADIANS(A300))</f>
         <v>0.48480962024633728</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
       <c r="B301">
         <f t="shared" si="7"/>
+        <v>5.2359877559829888</v>
+      </c>
+      <c r="C301">
+        <f>COS(RADIANS(A301))</f>
         <v>0.50000000000000011</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
       <c r="B302">
         <f t="shared" si="7"/>
+        <v>5.2534410485029319</v>
+      </c>
+      <c r="C302">
+        <f>COS(RADIANS(A302))</f>
         <v>0.51503807491005416</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
       <c r="B303">
         <f t="shared" si="7"/>
+        <v>5.270894341022875</v>
+      </c>
+      <c r="C303">
+        <f>COS(RADIANS(A303))</f>
         <v>0.52991926423320468</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
       <c r="B304">
         <f t="shared" si="7"/>
+        <v>5.2883476335428181</v>
+      </c>
+      <c r="C304">
+        <f>COS(RADIANS(A304))</f>
         <v>0.54463903501502664</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
       <c r="B305">
         <f t="shared" si="7"/>
+        <v>5.3058009260627621</v>
+      </c>
+      <c r="C305">
+        <f>COS(RADIANS(A305))</f>
         <v>0.55919290347074702</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
       <c r="B306">
         <f t="shared" si="7"/>
+        <v>5.3232542185827052</v>
+      </c>
+      <c r="C306">
+        <f>COS(RADIANS(A306))</f>
         <v>0.57357643635104605</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
       <c r="B307">
         <f t="shared" si="7"/>
+        <v>5.3407075111026483</v>
+      </c>
+      <c r="C307">
+        <f>COS(RADIANS(A307))</f>
         <v>0.58778525229247292</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
       <c r="B308">
         <f t="shared" si="7"/>
+        <v>5.3581608036225914</v>
+      </c>
+      <c r="C308">
+        <f>COS(RADIANS(A308))</f>
         <v>0.60181502315204793</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
       <c r="B309">
         <f t="shared" si="7"/>
+        <v>5.3756140961425354</v>
+      </c>
+      <c r="C309">
+        <f>COS(RADIANS(A309))</f>
         <v>0.61566147532565851</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
       <c r="B310">
         <f t="shared" si="7"/>
+        <v>5.3930673886624785</v>
+      </c>
+      <c r="C310">
+        <f>COS(RADIANS(A310))</f>
         <v>0.6293203910498375</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
       <c r="B311">
         <f t="shared" si="7"/>
+        <v>5.4105206811824216</v>
+      </c>
+      <c r="C311">
+        <f>COS(RADIANS(A311))</f>
         <v>0.64278760968653925</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
       <c r="B312">
         <f t="shared" si="7"/>
+        <v>5.4279739737023647</v>
+      </c>
+      <c r="C312">
+        <f>COS(RADIANS(A312))</f>
         <v>0.65605902899050705</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
       <c r="B313">
         <f t="shared" si="7"/>
+        <v>5.4454272662223078</v>
+      </c>
+      <c r="C313">
+        <f>COS(RADIANS(A313))</f>
         <v>0.66913060635885779</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
       <c r="B314">
         <f t="shared" si="7"/>
+        <v>5.4628805587422518</v>
+      </c>
+      <c r="C314">
+        <f>COS(RADIANS(A314))</f>
         <v>0.68199836006249859</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
       <c r="B315">
         <f t="shared" si="7"/>
+        <v>5.4803338512621949</v>
+      </c>
+      <c r="C315">
+        <f>COS(RADIANS(A315))</f>
         <v>0.69465837045899725</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
       <c r="B316">
         <f t="shared" si="7"/>
+        <v>5.497787143782138</v>
+      </c>
+      <c r="C316">
+        <f>COS(RADIANS(A316))</f>
         <v>0.70710678118654735</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
       <c r="B317">
         <f t="shared" si="7"/>
+        <v>5.5152404363020811</v>
+      </c>
+      <c r="C317">
+        <f>COS(RADIANS(A317))</f>
         <v>0.71933980033865086</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
       <c r="B318">
         <f t="shared" si="7"/>
+        <v>5.532693728822025</v>
+      </c>
+      <c r="C318">
+        <f>COS(RADIANS(A318))</f>
         <v>0.73135370161917068</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
       <c r="B319">
         <f t="shared" si="7"/>
+        <v>5.5501470213419681</v>
+      </c>
+      <c r="C319">
+        <f>COS(RADIANS(A319))</f>
         <v>0.74314482547739424</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
       <c r="B320">
         <f t="shared" si="7"/>
+        <v>5.5676003138619112</v>
+      </c>
+      <c r="C320">
+        <f>COS(RADIANS(A320))</f>
         <v>0.7547095802227719</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
       <c r="B321">
         <f t="shared" si="7"/>
+        <v>5.5850536063818543</v>
+      </c>
+      <c r="C321">
+        <f>COS(RADIANS(A321))</f>
         <v>0.76604444311897779</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
       <c r="B322">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="B322:B361" si="8">RADIANS(A322)</f>
+        <v>5.6025068989017974</v>
+      </c>
+      <c r="C322">
+        <f>COS(RADIANS(A322))</f>
         <v>0.77714596145697057</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
       <c r="B323">
-        <f t="shared" ref="B323:B361" si="8">COS(RADIANS(A323))</f>
+        <f t="shared" si="8"/>
+        <v>5.6199601914217414</v>
+      </c>
+      <c r="C323">
+        <f>COS(RADIANS(A323))</f>
         <v>0.78801075360672201</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
       <c r="B324">
         <f t="shared" si="8"/>
+        <v>5.6374134839416845</v>
+      </c>
+      <c r="C324">
+        <f>COS(RADIANS(A324))</f>
         <v>0.79863551004729283</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
       <c r="B325">
         <f t="shared" si="8"/>
+        <v>5.6548667764616276</v>
+      </c>
+      <c r="C325">
+        <f>COS(RADIANS(A325))</f>
         <v>0.80901699437494734</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
       <c r="B326">
         <f t="shared" si="8"/>
+        <v>5.6723200689815707</v>
+      </c>
+      <c r="C326">
+        <f>COS(RADIANS(A326))</f>
         <v>0.81915204428899158</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
       <c r="B327">
         <f t="shared" si="8"/>
+        <v>5.6897733615015147</v>
+      </c>
+      <c r="C327">
+        <f>COS(RADIANS(A327))</f>
         <v>0.82903757255504185</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
       <c r="B328">
         <f t="shared" si="8"/>
+        <v>5.7072266540214578</v>
+      </c>
+      <c r="C328">
+        <f>COS(RADIANS(A328))</f>
         <v>0.83867056794542405</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
       <c r="B329">
         <f t="shared" si="8"/>
+        <v>5.7246799465414009</v>
+      </c>
+      <c r="C329">
+        <f>COS(RADIANS(A329))</f>
         <v>0.84804809615642596</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
       <c r="B330">
         <f t="shared" si="8"/>
+        <v>5.742133239061344</v>
+      </c>
+      <c r="C330">
+        <f>COS(RADIANS(A330))</f>
         <v>0.85716730070211211</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
       <c r="B331">
         <f t="shared" si="8"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="C331">
+        <f>COS(RADIANS(A331))</f>
         <v>0.86602540378443837</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
       <c r="B332">
         <f t="shared" si="8"/>
+        <v>5.7770398241012311</v>
+      </c>
+      <c r="C332">
+        <f>COS(RADIANS(A332))</f>
         <v>0.87461970713939585</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
       <c r="B333">
         <f t="shared" si="8"/>
+        <v>5.7944931166211742</v>
+      </c>
+      <c r="C333">
+        <f>COS(RADIANS(A333))</f>
         <v>0.88294759285892688</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
       <c r="B334">
         <f t="shared" si="8"/>
+        <v>5.8119464091411173</v>
+      </c>
+      <c r="C334">
+        <f>COS(RADIANS(A334))</f>
         <v>0.89100652418836779</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
       <c r="B335">
         <f t="shared" si="8"/>
+        <v>5.8293997016610604</v>
+      </c>
+      <c r="C335">
+        <f>COS(RADIANS(A335))</f>
         <v>0.89879404629916682</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
       <c r="B336">
         <f t="shared" si="8"/>
+        <v>5.8468529941810043</v>
+      </c>
+      <c r="C336">
+        <f>COS(RADIANS(A336))</f>
         <v>0.90630778703665005</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
       <c r="B337">
         <f t="shared" si="8"/>
+        <v>5.8643062867009474</v>
+      </c>
+      <c r="C337">
+        <f>COS(RADIANS(A337))</f>
         <v>0.91354545764260098</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
       <c r="B338">
         <f t="shared" si="8"/>
+        <v>5.8817595792208905</v>
+      </c>
+      <c r="C338">
+        <f>COS(RADIANS(A338))</f>
         <v>0.92050485345244026</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
       <c r="B339">
         <f t="shared" si="8"/>
+        <v>5.8992128717408336</v>
+      </c>
+      <c r="C339">
+        <f>COS(RADIANS(A339))</f>
         <v>0.92718385456678731</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
       <c r="B340">
         <f t="shared" si="8"/>
+        <v>5.9166661642607767</v>
+      </c>
+      <c r="C340">
+        <f>COS(RADIANS(A340))</f>
         <v>0.93358042649720152</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
       <c r="B341">
         <f t="shared" si="8"/>
+        <v>5.9341194567807207</v>
+      </c>
+      <c r="C341">
+        <f>COS(RADIANS(A341))</f>
         <v>0.93969262078590843</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
       <c r="B342">
         <f t="shared" si="8"/>
+        <v>5.9515727493006638</v>
+      </c>
+      <c r="C342">
+        <f>COS(RADIANS(A342))</f>
         <v>0.94551857559931685</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
       <c r="B343">
         <f t="shared" si="8"/>
+        <v>5.9690260418206069</v>
+      </c>
+      <c r="C343">
+        <f>COS(RADIANS(A343))</f>
         <v>0.95105651629515353</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
       <c r="B344">
         <f t="shared" si="8"/>
+        <v>5.98647933434055</v>
+      </c>
+      <c r="C344">
+        <f>COS(RADIANS(A344))</f>
         <v>0.95630475596303532</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
       <c r="B345">
         <f t="shared" si="8"/>
+        <v>6.003932626860494</v>
+      </c>
+      <c r="C345">
+        <f>COS(RADIANS(A345))</f>
         <v>0.96126169593831889</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
       <c r="B346">
         <f t="shared" si="8"/>
+        <v>6.0213859193804371</v>
+      </c>
+      <c r="C346">
+        <f>COS(RADIANS(A346))</f>
         <v>0.96592582628906831</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
       <c r="B347">
         <f t="shared" si="8"/>
+        <v>6.0388392119003802</v>
+      </c>
+      <c r="C347">
+        <f>COS(RADIANS(A347))</f>
         <v>0.97029572627599647</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
       <c r="B348">
         <f t="shared" si="8"/>
+        <v>6.0562925044203233</v>
+      </c>
+      <c r="C348">
+        <f>COS(RADIANS(A348))</f>
         <v>0.97437006478523513</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
       <c r="B349">
         <f t="shared" si="8"/>
+        <v>6.0737457969402664</v>
+      </c>
+      <c r="C349">
+        <f>COS(RADIANS(A349))</f>
         <v>0.97814760073380558</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
       <c r="B350">
         <f t="shared" si="8"/>
+        <v>6.0911990894602104</v>
+      </c>
+      <c r="C350">
+        <f>COS(RADIANS(A350))</f>
         <v>0.98162718344766398</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
       <c r="B351">
         <f t="shared" si="8"/>
+        <v>6.1086523819801535</v>
+      </c>
+      <c r="C351">
+        <f>COS(RADIANS(A351))</f>
         <v>0.98480775301220802</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
       <c r="B352">
         <f t="shared" si="8"/>
+        <v>6.1261056745000966</v>
+      </c>
+      <c r="C352">
+        <f>COS(RADIANS(A352))</f>
         <v>0.98768834059513766</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
       <c r="B353">
         <f t="shared" si="8"/>
+        <v>6.1435589670200397</v>
+      </c>
+      <c r="C353">
+        <f>COS(RADIANS(A353))</f>
         <v>0.99026806874157025</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
       <c r="B354">
         <f t="shared" si="8"/>
+        <v>6.1610122595399837</v>
+      </c>
+      <c r="C354">
+        <f>COS(RADIANS(A354))</f>
         <v>0.99254615164132209</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
       <c r="B355">
         <f t="shared" si="8"/>
+        <v>6.1784655520599268</v>
+      </c>
+      <c r="C355">
+        <f>COS(RADIANS(A355))</f>
         <v>0.99452189536827329</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
       <c r="B356">
         <f t="shared" si="8"/>
+        <v>6.1959188445798699</v>
+      </c>
+      <c r="C356">
+        <f>COS(RADIANS(A356))</f>
         <v>0.99619469809174555</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
       <c r="B357">
         <f t="shared" si="8"/>
+        <v>6.213372137099813</v>
+      </c>
+      <c r="C357">
+        <f>COS(RADIANS(A357))</f>
         <v>0.9975640502598242</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
       <c r="B358">
         <f t="shared" si="8"/>
+        <v>6.2308254296197561</v>
+      </c>
+      <c r="C358">
+        <f>COS(RADIANS(A358))</f>
         <v>0.99862953475457383</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
       <c r="B359">
         <f t="shared" si="8"/>
+        <v>6.2482787221397</v>
+      </c>
+      <c r="C359">
+        <f>COS(RADIANS(A359))</f>
         <v>0.99939082701909576</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
       <c r="B360">
         <f t="shared" si="8"/>
+        <v>6.2657320146596431</v>
+      </c>
+      <c r="C360">
+        <f>COS(RADIANS(A360))</f>
         <v>0.99984769515639127</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
       <c r="B361">
         <f t="shared" si="8"/>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="C361">
+        <f>COS(RADIANS(A361))</f>
         <v>1</v>
       </c>
     </row>
@@ -4042,11 +5508,258 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CDA45E-C5C9-42FD-85A0-19A537AF074F}">
+  <dimension ref="B3:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.1415926000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <f>B6*$C$3/$D$3</f>
+        <v>0.5235987666666666</v>
+      </c>
+      <c r="D6">
+        <f>SIN(C6)</f>
+        <v>0.49999999226497954</v>
+      </c>
+      <c r="E6">
+        <f>COS(C6)</f>
+        <v>0.86602540825025476</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C17" si="0">B7*$C$3/$D$3</f>
+        <v>1.0471975333333332</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D17" si="1">SIN(C7)</f>
+        <v>0.86602539485280627</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E17" si="2">COS(C7)</f>
+        <v>0.5000000154700408</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.5707963</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>2.6794896585053716E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>120</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2.0943950666666664</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.86602542164770269</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>-0.49999996905991789</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>150</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2.6179938333333337</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.50000003867510112</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>-0.86602538145535746</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>180</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>3.1415926000000001</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>5.3589793170107412E-8</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>-0.99999999999999856</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>210</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>3.6651913666666669</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>-0.49999994585485652</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>-0.86602543504514962</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>240</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>4.1887901333333328</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>-0.86602536805790731</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>-0.50000006188016222</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>270</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>4.7123888999999997</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>-0.99999999999999678</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>-8.0384690199250275E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>300</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>5.2359876666666674</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>-0.86602544844259588</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>0.49999992264979476</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>330</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>5.7595864333333342</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>-0.50000008508522109</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>0.86602535466045771</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>360</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>6.2831852000000001</v>
+      </c>
+      <c r="D17">
+        <f>SIN(C17)</f>
+        <v>-1.0717958634021467E-7</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999423</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BE4ECD-FC8C-4C5D-BC27-EFF24A159DB6}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E1:E13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
